--- a/A3/kirschCuda/benchmarks.xlsx
+++ b/A3/kirschCuda/benchmarks.xlsx
@@ -855,7 +855,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tile width</a:t>
+                  <a:t>Block size</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2607,8 +2607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
